--- a/Table/Datas/MonsterData.xlsx
+++ b/Table/Datas/MonsterData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectH\Table\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC4D5B0-C19B-4B42-9148-A231EBC6D290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D87864-3192-4261-A581-13E43627EC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22485" yWindow="1440" windowWidth="21600" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="690" windowWidth="21600" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>!Field</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -76,6 +76,14 @@
   </si>
   <si>
     <t>Monster_Cerafina</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tarray&lt;int&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillNos</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -154,7 +162,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -167,6 +175,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -449,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E7"/>
+  <dimension ref="A2:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -460,10 +471,11 @@
     <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="87.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,8 +491,11 @@
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -496,8 +511,11 @@
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -511,10 +529,13 @@
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -528,10 +549,13 @@
         <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1001</v>
       </c>
@@ -544,16 +568,20 @@
       <c r="D6" s="3">
         <v>102</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="5">
+        <v>2004</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Table/Datas/MonsterData.xlsx
+++ b/Table/Datas/MonsterData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectH\Table\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D87864-3192-4261-A581-13E43627EC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1886BDAA-9FB1-4DC1-8222-881E5F1AD570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="690" windowWidth="21600" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -463,7 +463,7 @@
   <dimension ref="A2:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -569,7 +569,7 @@
         <v>102</v>
       </c>
       <c r="E6" s="5">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>6</v>
